--- a/experiment result/128_0.3_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.3_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08319071947674586</v>
+        <v>0.01585940746008638</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07397551517307369</v>
+        <v>0.03338673291025717</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09514500968697462</v>
+        <v>0.03608826822397446</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07711530864590052</v>
+        <v>0.02577217454941732</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08447939949630039</v>
+        <v>0.03132049017340491</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07930974287038417</v>
+        <v>0.03179201701503516</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127563526072856</v>
+        <v>0.04532174154054627</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09885960344989846</v>
+        <v>0.02787596898017958</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09052961773540509</v>
+        <v>0.02261971189124072</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1040251443824599</v>
+        <v>0.1108926353811063</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09938317167576641</v>
+        <v>0.01659803706950614</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1232952119477883</v>
+        <v>0.09479279722231372</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101025288291665</v>
+        <v>0.01586047808573066</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08523739469363713</v>
+        <v>0.01511940423360788</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09389626237490338</v>
+        <v>0.04894988883440905</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1106108777656838</v>
+        <v>0.01796060396710081</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09302587738615958</v>
+        <v>0.0204756975528798</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06853052863062656</v>
+        <v>0.003310035390240729</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09212982316149608</v>
+        <v>0.09870770695545435</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1311166566457629</v>
+        <v>0.05198174140980412</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06029856730248136</v>
+        <v>0.009835563061185836</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06973428710339903</v>
+        <v>0.004060133463522725</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0768875634512565</v>
+        <v>0.04627404536464731</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04707223171741831</v>
+        <v>0.006081901114649671</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0584874525406129</v>
+        <v>0.002123337284259753</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1413240035298163</v>
+        <v>0.05548769688216691</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1122704828578748</v>
+        <v>0.02934735662840355</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08946654793528858</v>
+        <v>0.06838027678679412</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07884090285784288</v>
+        <v>0.02134478347694281</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09314744493142155</v>
+        <v>0.03428052583322371</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03612068844589696</v>
+        <v>0.002481414075602355</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07088495022487809</v>
+        <v>0.01898683126902895</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1120805462394245</v>
+        <v>0.04810500042369246</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06104139077508362</v>
+        <v>0.05303512397775689</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07962952681976512</v>
+        <v>0.04419960818300229</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1119828161571932</v>
+        <v>0.07964575492116592</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07721180448588881</v>
+        <v>0.01304111742960206</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08551938477982271</v>
+        <v>0.01860795160888659</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09376035202441753</v>
+        <v>0.07013627663655204</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07918264495201259</v>
+        <v>0.09459785432686804</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09052845291916549</v>
+        <v>0.06907495206466023</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06393960770496028</v>
+        <v>0.01609964376784565</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09237808848113113</v>
+        <v>0.0798383877907234</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09650371586713968</v>
+        <v>0.0449177843703947</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08079069997005667</v>
+        <v>0.06680781437428238</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1149990877347501</v>
+        <v>0.03573178506146958</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09903527562785819</v>
+        <v>0.1260319039135634</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06121741486542246</v>
+        <v>0.01291552300794557</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09885477639790681</v>
+        <v>0.008568982586491336</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05730907194203283</v>
+        <v>0.008197189919837609</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07633544745708529</v>
+        <v>0.0337200457816359</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1075805139612502</v>
+        <v>0.04759662852834658</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04600588902079399</v>
+        <v>0.01288329824585317</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04871553134914269</v>
+        <v>0.004944782760279235</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1028615087350767</v>
+        <v>0.04741173607048565</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09226854012291576</v>
+        <v>0.0429687970335421</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07544677488331196</v>
+        <v>0.01976656071496866</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1019529275691576</v>
+        <v>0.05679161053001762</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06197240910343876</v>
+        <v>0.01313149422313506</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0983863210775167</v>
+        <v>0.0312751235199657</v>
       </c>
     </row>
   </sheetData>
